--- a/notebooks/wiretaps_sw.xlsx
+++ b/notebooks/wiretaps_sw.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhailbhat/Desktop/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhailbhat/Desktop/Summer_Semester/foundations/Project-Work/Project-Work/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D0B525-91BF-9543-82AE-217A6F401833}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90131809-2E17-8C40-9D2F-7BFEE72087E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16040" xr2:uid="{7CA451CD-C4B9-2D43-A92A-66DF46A466E8}"/>
+    <workbookView xWindow="780" yWindow="840" windowWidth="27640" windowHeight="16040" xr2:uid="{7CA451CD-C4B9-2D43-A92A-66DF46A466E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>properties.DISTRICT</t>
   </si>
@@ -66,49 +71,7 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Texas</t>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -463,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33E4AAB-0779-D249-949F-A61F2ABB3DC4}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,119 +538,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
